--- a/backend/storage/uploads/data.xlsx
+++ b/backend/storage/uploads/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pradeep\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pradeep\Desktop\Troyer-Nepal\backend\storage\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FEDBC3-7820-4441-B8B0-357C53C321AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D82442-FD3F-472E-8BBC-93D876130E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Engagements" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,18 @@
     <sheet name="profiles" sheetId="3" r:id="rId3"/>
     <sheet name="Seti_Updated" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="Weeklist">[1]Sheet3!$D$4:$D$220</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="425">
   <si>
     <t>id</t>
   </si>
@@ -289,111 +295,1034 @@
     <t>Manager</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Task Description MG1-MG2</t>
-  </si>
-  <si>
-    <t>Responsibility</t>
-  </si>
-  <si>
-    <t>Start date</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Task Name</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>End date</t>
-  </si>
-  <si>
-    <t>Turbine &amp; Auxiliaries</t>
-  </si>
-  <si>
-    <t>Final alignment of generator and tightening of anchor bolts to specified torque (MG2)</t>
-  </si>
-  <si>
-    <t>TROYER</t>
-  </si>
-  <si>
-    <t>Civil works</t>
-  </si>
-  <si>
-    <t>Construction work - generator foundation MG1-MG2</t>
-  </si>
-  <si>
-    <t>CUSTOMER</t>
-  </si>
-  <si>
-    <t>Assembly of control hydraulics and pipework, lubrication hydraulics</t>
-  </si>
-  <si>
-    <t>MIV Reworks</t>
-  </si>
-  <si>
-    <t>Runner assembly shaft seal assembly and final inspection</t>
-  </si>
-  <si>
-    <t>Guide vanes adjusted and recorded according to specifications* </t>
-  </si>
-  <si>
-    <t>Shaft seal mounted (Burgmann) </t>
-  </si>
-  <si>
-    <t>Cooling system Shaft seal mounted </t>
-  </si>
-  <si>
-    <t>Piping Cooling system Shaft seal mounted </t>
-  </si>
-  <si>
-    <t>Francis runner mounted (High pressure process) </t>
-  </si>
-  <si>
-    <t>Screws of runner cover tightened according to torque* </t>
-  </si>
-  <si>
-    <t>Pressure sensors and manometers mounted on penstock and turbine supply line </t>
-  </si>
-  <si>
-    <t>Repainting work carried out </t>
-  </si>
-  <si>
-    <t>Final paint check </t>
-  </si>
-  <si>
-    <t>Switchyard System</t>
-  </si>
-  <si>
-    <t>Testing of Equipments</t>
-  </si>
-  <si>
-    <t>Commissioning</t>
-  </si>
-  <si>
-    <t>Pre-commissioning activities</t>
-  </si>
-  <si>
-    <t>Pre-commissioning of powerhouse :Signal testing
-Commissioning of the main components (MIV, HPU, cooling system) with the required settings (for example opening/closing times)</t>
-  </si>
-  <si>
-    <t>pre-commissioning of substation :Signal testing
-Testing of the complete equipment from Troyer control system (with Philipp from remote)</t>
-  </si>
-  <si>
-    <t>Wet commissioning and isolation mode </t>
-  </si>
-  <si>
-    <t>Final check of the main components (MIV, HPU, …)</t>
-  </si>
-  <si>
-    <t>First spinning, excitation, and isolated mode</t>
-  </si>
-  <si>
-    <t>Goal is to have both machines running in isolated mode with also the main transformer charged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                               2/30/2026</t>
+    <t>Upper Myagdi 1 HEP (VF 17.84  MW x 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milestone </t>
+  </si>
+  <si>
+    <t>Contract signature</t>
+  </si>
+  <si>
+    <t>2025-WK38</t>
+  </si>
+  <si>
+    <t>LC opening</t>
+  </si>
+  <si>
+    <t>2025-WK49</t>
+  </si>
+  <si>
+    <t>General engineering</t>
+  </si>
+  <si>
+    <t>2025-WK50</t>
+  </si>
+  <si>
+    <t>Final Design/SLD time schedule submission</t>
+  </si>
+  <si>
+    <t>2026-WK04</t>
+  </si>
+  <si>
+    <t>Detail engineering and production/procurement</t>
+  </si>
+  <si>
+    <t>2026-WK05</t>
+  </si>
+  <si>
+    <t>FAT</t>
+  </si>
+  <si>
+    <t>2027-WK06</t>
+  </si>
+  <si>
+    <t>Packing and transport preparation (italy SoW)</t>
+  </si>
+  <si>
+    <t>2027-WK07</t>
+  </si>
+  <si>
+    <t>Dispatch of goods (italy SoW)</t>
+  </si>
+  <si>
+    <t>2027-WK09</t>
+  </si>
+  <si>
+    <t>Transport and custom clearance (italy SoW)</t>
+  </si>
+  <si>
+    <t>2027-WK10</t>
+  </si>
+  <si>
+    <t>Delivery on site of goods (italy SoW)</t>
+  </si>
+  <si>
+    <t>2027-WK22</t>
+  </si>
+  <si>
+    <t>Delivery on site -crane(india SoW)</t>
+  </si>
+  <si>
+    <t>Delivery on site - spirals, draft tubes, MIVs (india SoW)</t>
+  </si>
+  <si>
+    <t>Delivery on site of generators (india Sow)</t>
+  </si>
+  <si>
+    <t>Delivery on site of swithcgears (india SoW)</t>
+  </si>
+  <si>
+    <t>Delivery on site of transformers (india SoW)</t>
+  </si>
+  <si>
+    <t>Delivery on site of HOT crane (india SoW)</t>
+  </si>
+  <si>
+    <t>Interface Milestone EM</t>
+  </si>
+  <si>
+    <t>Datum for Earthmat Installation</t>
+  </si>
+  <si>
+    <t>Powerhouse Crane Beam Ready</t>
+  </si>
+  <si>
+    <t>2027-WK18</t>
+  </si>
+  <si>
+    <t>Service bay available</t>
+  </si>
+  <si>
+    <t>Machine Hall available</t>
+  </si>
+  <si>
+    <t>2027-WK23</t>
+  </si>
+  <si>
+    <t>PPV chamber ready for HOT erection</t>
+  </si>
+  <si>
+    <t>2028-WK02</t>
+  </si>
+  <si>
+    <t>Switchyard foundation available</t>
+  </si>
+  <si>
+    <t>2028-WK31</t>
+  </si>
+  <si>
+    <t>RESS Foundation available</t>
+  </si>
+  <si>
+    <t>Headworks Control room availability</t>
+  </si>
+  <si>
+    <t>2028-WK35</t>
+  </si>
+  <si>
+    <t>Water Filling Start</t>
+  </si>
+  <si>
+    <t>2029-WK06</t>
+  </si>
+  <si>
+    <t>Water ready for Spinning</t>
+  </si>
+  <si>
+    <t>2029-WK07</t>
+  </si>
+  <si>
+    <t>Transmission line ready</t>
+  </si>
+  <si>
+    <t>2028-WK48</t>
+  </si>
+  <si>
+    <t>Installation EM</t>
+  </si>
+  <si>
+    <t>Common Mechanical</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Installation of Drainage and Dewatering
+Pumps &amp; Valves</t>
+    </r>
+  </si>
+  <si>
+    <t>Piping for Drainage and Dewatering System</t>
+  </si>
+  <si>
+    <t>Installation of filters and piping for Cooling Water System</t>
+  </si>
+  <si>
+    <t>Installation for Oil Pumping Unit 1 2 3</t>
+  </si>
+  <si>
+    <t>Piping for Oil Pumping Unit 1 2 3</t>
+  </si>
+  <si>
+    <t>Unit 1  17.84 MW</t>
+  </si>
+  <si>
+    <t>TURBINE</t>
+  </si>
+  <si>
+    <t>Turbine main installation</t>
+  </si>
+  <si>
+    <t>Main  Inlet Valve</t>
+  </si>
+  <si>
+    <t>2027-WK32</t>
+  </si>
+  <si>
+    <t>Foundation Second stage</t>
+  </si>
+  <si>
+    <t>2027-WK36</t>
+  </si>
+  <si>
+    <t>Shaft Seal and Bearing</t>
+  </si>
+  <si>
+    <t>2028-WK04</t>
+  </si>
+  <si>
+    <t>Cabling</t>
+  </si>
+  <si>
+    <t>2027-WK46</t>
+  </si>
+  <si>
+    <t>Dry tests prior to handover to Wet commissioning-U1</t>
+  </si>
+  <si>
+    <t>GENERATOR</t>
+  </si>
+  <si>
+    <t>Generator lowering</t>
+  </si>
+  <si>
+    <t>2027-WK44</t>
+  </si>
+  <si>
+    <t>Main erection</t>
+  </si>
+  <si>
+    <t>2027-WK45</t>
+  </si>
+  <si>
+    <t>Foundation Second Stage</t>
+  </si>
+  <si>
+    <t>2027-WK50</t>
+  </si>
+  <si>
+    <t>Final erection and cabling</t>
+  </si>
+  <si>
+    <t>Piping</t>
+  </si>
+  <si>
+    <t>Diagnostics &amp; Monitoring</t>
+  </si>
+  <si>
+    <t>2028-WK08</t>
+  </si>
+  <si>
+    <t>Dry tests prior to handover to Wet commissioning-U2</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Secondary Earthing System</t>
+  </si>
+  <si>
+    <t>Cable supports &amp; Cable try</t>
+  </si>
+  <si>
+    <t>2028-WK05</t>
+  </si>
+  <si>
+    <t>Step-up Transformer</t>
+  </si>
+  <si>
+    <t>Main Generator Lead</t>
+  </si>
+  <si>
+    <t>Low Voltage AC/DC Distribution and MCC</t>
+  </si>
+  <si>
+    <t>Excitation System incl. Excitation Transformer</t>
+  </si>
+  <si>
+    <t>Unit Control and Protection System</t>
+  </si>
+  <si>
+    <t>Electronic Governor</t>
+  </si>
+  <si>
+    <t>Test prior to handover to commission</t>
+  </si>
+  <si>
+    <t>Unit 2  17.84 MW</t>
+  </si>
+  <si>
+    <t>2027-WK29</t>
+  </si>
+  <si>
+    <t>2027-WK38</t>
+  </si>
+  <si>
+    <t>2027-WK42</t>
+  </si>
+  <si>
+    <t>2028-WK10</t>
+  </si>
+  <si>
+    <t>2028-WK11</t>
+  </si>
+  <si>
+    <t>2027-WK49</t>
+  </si>
+  <si>
+    <t>2028-WK06</t>
+  </si>
+  <si>
+    <t>2028-WK12</t>
+  </si>
+  <si>
+    <t>2028-WK16</t>
+  </si>
+  <si>
+    <t>Test prior to handover to commissioning</t>
+  </si>
+  <si>
+    <t>Unit 3  17.84 MW</t>
+  </si>
+  <si>
+    <t>2027-WK34</t>
+  </si>
+  <si>
+    <t>2028-WK14</t>
+  </si>
+  <si>
+    <t>2028-WK15</t>
+  </si>
+  <si>
+    <t>Dry tests prior to handover to Wet commissioning</t>
+  </si>
+  <si>
+    <t>2028-WK01</t>
+  </si>
+  <si>
+    <t>2028-WK20</t>
+  </si>
+  <si>
+    <t>Common EPS</t>
+  </si>
+  <si>
+    <t>Earthing System</t>
+  </si>
+  <si>
+    <t>Cabling &amp; Cable Support System</t>
+  </si>
+  <si>
+    <t>132 KV Switchyard Erection of Steel Structures</t>
+  </si>
+  <si>
+    <t>Equipments (HV / MV / LV) Switchyard</t>
+  </si>
+  <si>
+    <t>Lines &amp; Busbar installation (including stringing of lines)</t>
+  </si>
+  <si>
+    <t>Switchyard electrical boards</t>
+  </si>
+  <si>
+    <t>Switchyard protection system and common control system</t>
+  </si>
+  <si>
+    <t>SCADA installation</t>
+  </si>
+  <si>
+    <t>Medium Voltage Switchgear</t>
+  </si>
+  <si>
+    <t>110 V DC System</t>
+  </si>
+  <si>
+    <t>Ventilation and Ducting System</t>
+  </si>
+  <si>
+    <t>PPV house - electrical works</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powerhouse distribution transformer
+and switchboards</t>
+    </r>
+  </si>
+  <si>
+    <t>Installation of DG Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Systems (illumination System,CCTV etc)
+</t>
+  </si>
+  <si>
+    <t>Fire Fighting System switchyard</t>
+  </si>
+  <si>
+    <t>Fire Fighting System powerhouse</t>
+  </si>
+  <si>
+    <t>Test prior to handover to commissionin</t>
+  </si>
+  <si>
+    <t>Headworks EPS</t>
+  </si>
+  <si>
+    <t>RTU Panel installation</t>
+  </si>
+  <si>
+    <t>OFC Cable termination</t>
+  </si>
+  <si>
+    <t>Water level Sensor installation</t>
+  </si>
+  <si>
+    <t>Silt level Sensor installation</t>
+  </si>
+  <si>
+    <t>PPV House</t>
+  </si>
+  <si>
+    <t>HOT Crane Erection</t>
+  </si>
+  <si>
+    <t>PPV Installation</t>
+  </si>
+  <si>
+    <t>Second Stage Concreting</t>
+  </si>
+  <si>
+    <t>PPV-OPU and Its Piping</t>
+  </si>
+  <si>
+    <t>Installation of Panels, ( RTU, LTAC, DC  SYSTEM)</t>
+  </si>
+  <si>
+    <t>Installation of Over velocity Device</t>
+  </si>
+  <si>
+    <t>Installation of Air Release Valve </t>
+  </si>
+  <si>
+    <t>Installation of DG Set &amp; Double Pole Structure, Aux Transformer</t>
+  </si>
+  <si>
+    <t>Wet Commissioning</t>
+  </si>
+  <si>
+    <t>Wet Commissioning Unit1 17.84MW</t>
+  </si>
+  <si>
+    <t>TUR Wet Commissioning</t>
+  </si>
+  <si>
+    <t>GEN Wet Commissioning</t>
+  </si>
+  <si>
+    <t>EPS Wet Commissioning</t>
+  </si>
+  <si>
+    <t>AT Excitation Commissioning</t>
+  </si>
+  <si>
+    <t>AT Protection Commissioning</t>
+  </si>
+  <si>
+    <t>AT Control Commissioning</t>
+  </si>
+  <si>
+    <t>Wet Commissioning Unit2  17.84MW</t>
+  </si>
+  <si>
+    <t>Wet Commissioning Unit3  17.84MW</t>
+  </si>
+  <si>
+    <t>Reliability run #1</t>
+  </si>
+  <si>
+    <t>Reliability run #2</t>
+  </si>
+  <si>
+    <t>Reliability run #3</t>
+  </si>
+  <si>
+    <t>Integration of data points for LDC and other automation from central control</t>
+  </si>
+  <si>
+    <t>TOC an punch point closure</t>
+  </si>
+  <si>
+    <t>Week start (Mon.)</t>
+  </si>
+  <si>
+    <t>Week label (YYYY-WK)</t>
+  </si>
+  <si>
+    <t>2025-WK28</t>
+  </si>
+  <si>
+    <t>2025-WK29</t>
+  </si>
+  <si>
+    <t>2025-WK30</t>
+  </si>
+  <si>
+    <t>2025-WK31</t>
+  </si>
+  <si>
+    <t>2025-WK32</t>
+  </si>
+  <si>
+    <t>2025-WK33</t>
+  </si>
+  <si>
+    <t>2025-WK34</t>
+  </si>
+  <si>
+    <t>2025-WK35</t>
+  </si>
+  <si>
+    <t>2025-WK36</t>
+  </si>
+  <si>
+    <t>2025-WK37</t>
+  </si>
+  <si>
+    <t>2025-WK39</t>
+  </si>
+  <si>
+    <t>2025-WK40</t>
+  </si>
+  <si>
+    <t>2025-WK41</t>
+  </si>
+  <si>
+    <t>2025-WK42</t>
+  </si>
+  <si>
+    <t>2025-WK43</t>
+  </si>
+  <si>
+    <t>2025-WK44</t>
+  </si>
+  <si>
+    <t>2025-WK45</t>
+  </si>
+  <si>
+    <t>2025-WK46</t>
+  </si>
+  <si>
+    <t>2025-WK47</t>
+  </si>
+  <si>
+    <t>2025-WK48</t>
+  </si>
+  <si>
+    <t>2025-WK51</t>
+  </si>
+  <si>
+    <t>2025-WK52</t>
+  </si>
+  <si>
+    <t>2026-WK01</t>
+  </si>
+  <si>
+    <t>2026-WK02</t>
+  </si>
+  <si>
+    <t>2026-WK03</t>
+  </si>
+  <si>
+    <t>2026-WK06</t>
+  </si>
+  <si>
+    <t>2026-WK07</t>
+  </si>
+  <si>
+    <t>2026-WK08</t>
+  </si>
+  <si>
+    <t>2026-WK09</t>
+  </si>
+  <si>
+    <t>2026-WK10</t>
+  </si>
+  <si>
+    <t>2026-WK11</t>
+  </si>
+  <si>
+    <t>2026-WK12</t>
+  </si>
+  <si>
+    <t>2026-WK13</t>
+  </si>
+  <si>
+    <t>2026-WK14</t>
+  </si>
+  <si>
+    <t>2026-WK15</t>
+  </si>
+  <si>
+    <t>2026-WK16</t>
+  </si>
+  <si>
+    <t>2026-WK17</t>
+  </si>
+  <si>
+    <t>2026-WK18</t>
+  </si>
+  <si>
+    <t>2026-WK19</t>
+  </si>
+  <si>
+    <t>2026-WK20</t>
+  </si>
+  <si>
+    <t>2026-WK21</t>
+  </si>
+  <si>
+    <t>2026-WK22</t>
+  </si>
+  <si>
+    <t>2026-WK23</t>
+  </si>
+  <si>
+    <t>2026-WK24</t>
+  </si>
+  <si>
+    <t>2026-WK25</t>
+  </si>
+  <si>
+    <t>2026-WK26</t>
+  </si>
+  <si>
+    <t>2026-WK27</t>
+  </si>
+  <si>
+    <t>2026-WK28</t>
+  </si>
+  <si>
+    <t>2026-WK29</t>
+  </si>
+  <si>
+    <t>2026-WK30</t>
+  </si>
+  <si>
+    <t>2026-WK31</t>
+  </si>
+  <si>
+    <t>2026-WK32</t>
+  </si>
+  <si>
+    <t>2026-WK33</t>
+  </si>
+  <si>
+    <t>2026-WK34</t>
+  </si>
+  <si>
+    <t>2026-WK35</t>
+  </si>
+  <si>
+    <t>2026-WK36</t>
+  </si>
+  <si>
+    <t>2026-WK37</t>
+  </si>
+  <si>
+    <t>2026-WK38</t>
+  </si>
+  <si>
+    <t>2026-WK39</t>
+  </si>
+  <si>
+    <t>2026-WK40</t>
+  </si>
+  <si>
+    <t>2026-WK41</t>
+  </si>
+  <si>
+    <t>2026-WK42</t>
+  </si>
+  <si>
+    <t>2026-WK43</t>
+  </si>
+  <si>
+    <t>2026-WK44</t>
+  </si>
+  <si>
+    <t>2026-WK45</t>
+  </si>
+  <si>
+    <t>2026-WK46</t>
+  </si>
+  <si>
+    <t>2026-WK47</t>
+  </si>
+  <si>
+    <t>2026-WK48</t>
+  </si>
+  <si>
+    <t>2026-WK49</t>
+  </si>
+  <si>
+    <t>2026-WK50</t>
+  </si>
+  <si>
+    <t>2026-WK51</t>
+  </si>
+  <si>
+    <t>2026-WK52</t>
+  </si>
+  <si>
+    <t>2026-WK53</t>
+  </si>
+  <si>
+    <t>2027-WK01</t>
+  </si>
+  <si>
+    <t>2027-WK02</t>
+  </si>
+  <si>
+    <t>2027-WK03</t>
+  </si>
+  <si>
+    <t>2027-WK04</t>
+  </si>
+  <si>
+    <t>2027-WK05</t>
+  </si>
+  <si>
+    <t>2027-WK08</t>
+  </si>
+  <si>
+    <t>2027-WK11</t>
+  </si>
+  <si>
+    <t>2027-WK12</t>
+  </si>
+  <si>
+    <t>2027-WK13</t>
+  </si>
+  <si>
+    <t>2027-WK14</t>
+  </si>
+  <si>
+    <t>2027-WK15</t>
+  </si>
+  <si>
+    <t>2027-WK16</t>
+  </si>
+  <si>
+    <t>2027-WK17</t>
+  </si>
+  <si>
+    <t>2027-WK19</t>
+  </si>
+  <si>
+    <t>2027-WK20</t>
+  </si>
+  <si>
+    <t>2027-WK21</t>
+  </si>
+  <si>
+    <t>2027-WK24</t>
+  </si>
+  <si>
+    <t>2027-WK25</t>
+  </si>
+  <si>
+    <t>2027-WK26</t>
+  </si>
+  <si>
+    <t>2027-WK27</t>
+  </si>
+  <si>
+    <t>2027-WK28</t>
+  </si>
+  <si>
+    <t>2027-WK30</t>
+  </si>
+  <si>
+    <t>2027-WK31</t>
+  </si>
+  <si>
+    <t>2027-WK33</t>
+  </si>
+  <si>
+    <t>2027-WK35</t>
+  </si>
+  <si>
+    <t>2027-WK37</t>
+  </si>
+  <si>
+    <t>2027-WK39</t>
+  </si>
+  <si>
+    <t>2027-WK40</t>
+  </si>
+  <si>
+    <t>2027-WK41</t>
+  </si>
+  <si>
+    <t>2027-WK43</t>
+  </si>
+  <si>
+    <t>2027-WK47</t>
+  </si>
+  <si>
+    <t>2027-WK48</t>
+  </si>
+  <si>
+    <t>2027-WK51</t>
+  </si>
+  <si>
+    <t>2027-WK52</t>
+  </si>
+  <si>
+    <t>2028-WK03</t>
+  </si>
+  <si>
+    <t>2028-WK07</t>
+  </si>
+  <si>
+    <t>2028-WK09</t>
+  </si>
+  <si>
+    <t>2028-WK13</t>
+  </si>
+  <si>
+    <t>2028-WK17</t>
+  </si>
+  <si>
+    <t>2028-WK18</t>
+  </si>
+  <si>
+    <t>2028-WK19</t>
+  </si>
+  <si>
+    <t>2028-WK21</t>
+  </si>
+  <si>
+    <t>2028-WK22</t>
+  </si>
+  <si>
+    <t>2028-WK23</t>
+  </si>
+  <si>
+    <t>2028-WK24</t>
+  </si>
+  <si>
+    <t>2028-WK25</t>
+  </si>
+  <si>
+    <t>2028-WK26</t>
+  </si>
+  <si>
+    <t>2028-WK27</t>
+  </si>
+  <si>
+    <t>2028-WK28</t>
+  </si>
+  <si>
+    <t>2028-WK29</t>
+  </si>
+  <si>
+    <t>2028-WK30</t>
+  </si>
+  <si>
+    <t>2028-WK32</t>
+  </si>
+  <si>
+    <t>2028-WK33</t>
+  </si>
+  <si>
+    <t>2028-WK34</t>
+  </si>
+  <si>
+    <t>2028-WK36</t>
+  </si>
+  <si>
+    <t>2028-WK37</t>
+  </si>
+  <si>
+    <t>2028-WK38</t>
+  </si>
+  <si>
+    <t>2028-WK39</t>
+  </si>
+  <si>
+    <t>2028-WK40</t>
+  </si>
+  <si>
+    <t>2028-WK41</t>
+  </si>
+  <si>
+    <t>2028-WK42</t>
+  </si>
+  <si>
+    <t>2028-WK43</t>
+  </si>
+  <si>
+    <t>2028-WK44</t>
+  </si>
+  <si>
+    <t>2028-WK45</t>
+  </si>
+  <si>
+    <t>2028-WK46</t>
+  </si>
+  <si>
+    <t>2028-WK47</t>
+  </si>
+  <si>
+    <t>2028-WK49</t>
+  </si>
+  <si>
+    <t>2028-WK50</t>
+  </si>
+  <si>
+    <t>2028-WK51</t>
+  </si>
+  <si>
+    <t>2028-WK52</t>
+  </si>
+  <si>
+    <t>2029-WK01</t>
+  </si>
+  <si>
+    <t>2029-WK02</t>
+  </si>
+  <si>
+    <t>2029-WK03</t>
+  </si>
+  <si>
+    <t>2029-WK04</t>
+  </si>
+  <si>
+    <t>2029-WK05</t>
+  </si>
+  <si>
+    <t>2029-WK08</t>
+  </si>
+  <si>
+    <t>2029-WK09</t>
+  </si>
+  <si>
+    <t>2029-WK10</t>
+  </si>
+  <si>
+    <t>2029-WK11</t>
+  </si>
+  <si>
+    <t>2029-WK12</t>
+  </si>
+  <si>
+    <t>2029-WK13</t>
+  </si>
+  <si>
+    <t>2029-WK14</t>
+  </si>
+  <si>
+    <t>2029-WK15</t>
+  </si>
+  <si>
+    <t>2029-WK16</t>
+  </si>
+  <si>
+    <t>2029-WK17</t>
+  </si>
+  <si>
+    <t>2029-WK18</t>
+  </si>
+  <si>
+    <t>2029-WK19</t>
+  </si>
+  <si>
+    <t>2029-WK20</t>
+  </si>
+  <si>
+    <t>2029-WK21</t>
+  </si>
+  <si>
+    <t>2029-WK22</t>
+  </si>
+  <si>
+    <t>2029-WK23</t>
+  </si>
+  <si>
+    <t>2029-WK24</t>
+  </si>
+  <si>
+    <t>2029-WK25</t>
+  </si>
+  <si>
+    <t>2029-WK26</t>
+  </si>
+  <si>
+    <t>2029-WK27</t>
+  </si>
+  <si>
+    <t>2029-WK28</t>
+  </si>
+  <si>
+    <t>2029-WK29</t>
+  </si>
+  <si>
+    <t>2029-WK30</t>
+  </si>
+  <si>
+    <t>2029-WK31</t>
+  </si>
+  <si>
+    <t>2029-WK32</t>
+  </si>
+  <si>
+    <t>2029-WK33</t>
+  </si>
+  <si>
+    <t>2029-WK34</t>
+  </si>
+  <si>
+    <t>2029-WK35</t>
   </si>
 </sst>
 </file>
@@ -401,9 +1330,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +1344,41 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -452,12 +1416,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,6 +1458,1110 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="D4" t="str">
+            <v>2025-WK28</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5" t="str">
+            <v>2025-WK29</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>2025-WK30</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>2025-WK31</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>2025-WK32</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9" t="str">
+            <v>2025-WK33</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10" t="str">
+            <v>2025-WK34</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11" t="str">
+            <v>2025-WK35</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12" t="str">
+            <v>2025-WK36</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13" t="str">
+            <v>2025-WK37</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14" t="str">
+            <v>2025-WK38</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15" t="str">
+            <v>2025-WK39</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16" t="str">
+            <v>2025-WK40</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17" t="str">
+            <v>2025-WK41</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18" t="str">
+            <v>2025-WK42</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19" t="str">
+            <v>2025-WK43</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20" t="str">
+            <v>2025-WK44</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21" t="str">
+            <v>2025-WK45</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22" t="str">
+            <v>2025-WK46</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23" t="str">
+            <v>2025-WK47</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24" t="str">
+            <v>2025-WK48</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25" t="str">
+            <v>2025-WK49</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26" t="str">
+            <v>2025-WK50</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27" t="str">
+            <v>2025-WK51</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28" t="str">
+            <v>2025-WK52</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29" t="str">
+            <v>2026-WK01</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30" t="str">
+            <v>2026-WK02</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31" t="str">
+            <v>2026-WK03</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32" t="str">
+            <v>2026-WK04</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="D33" t="str">
+            <v>2026-WK05</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="D34" t="str">
+            <v>2026-WK06</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="D35" t="str">
+            <v>2026-WK07</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="D36" t="str">
+            <v>2026-WK08</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="D37" t="str">
+            <v>2026-WK09</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="D38" t="str">
+            <v>2026-WK10</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="D39" t="str">
+            <v>2026-WK11</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="D40" t="str">
+            <v>2026-WK12</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="D41" t="str">
+            <v>2026-WK13</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="D42" t="str">
+            <v>2026-WK14</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="D43" t="str">
+            <v>2026-WK15</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="D44" t="str">
+            <v>2026-WK16</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="D45" t="str">
+            <v>2026-WK17</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="D46" t="str">
+            <v>2026-WK18</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="D47" t="str">
+            <v>2026-WK19</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="D48" t="str">
+            <v>2026-WK20</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="D49" t="str">
+            <v>2026-WK21</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="D50" t="str">
+            <v>2026-WK22</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="D51" t="str">
+            <v>2026-WK23</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="D52" t="str">
+            <v>2026-WK24</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="D53" t="str">
+            <v>2026-WK25</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="D54" t="str">
+            <v>2026-WK26</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="D55" t="str">
+            <v>2026-WK27</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="D56" t="str">
+            <v>2026-WK28</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="D57" t="str">
+            <v>2026-WK29</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="D58" t="str">
+            <v>2026-WK30</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="D59" t="str">
+            <v>2026-WK31</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="D60" t="str">
+            <v>2026-WK32</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="D61" t="str">
+            <v>2026-WK33</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="D62" t="str">
+            <v>2026-WK34</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="D63" t="str">
+            <v>2026-WK35</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="D64" t="str">
+            <v>2026-WK36</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="D65" t="str">
+            <v>2026-WK37</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="D66" t="str">
+            <v>2026-WK38</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="D67" t="str">
+            <v>2026-WK39</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="D68" t="str">
+            <v>2026-WK40</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="D69" t="str">
+            <v>2026-WK41</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="D70" t="str">
+            <v>2026-WK42</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="D71" t="str">
+            <v>2026-WK43</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="D72" t="str">
+            <v>2026-WK44</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="D73" t="str">
+            <v>2026-WK45</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="D74" t="str">
+            <v>2026-WK46</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="D75" t="str">
+            <v>2026-WK47</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="D76" t="str">
+            <v>2026-WK48</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="D77" t="str">
+            <v>2026-WK49</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="D78" t="str">
+            <v>2026-WK50</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="D79" t="str">
+            <v>2026-WK51</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="D80" t="str">
+            <v>2026-WK52</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="D81" t="str">
+            <v>2026-WK53</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="D82" t="str">
+            <v>2027-WK01</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="D83" t="str">
+            <v>2027-WK02</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="D84" t="str">
+            <v>2027-WK03</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="D85" t="str">
+            <v>2027-WK04</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="D86" t="str">
+            <v>2027-WK05</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="D87" t="str">
+            <v>2027-WK06</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="D88" t="str">
+            <v>2027-WK07</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="D89" t="str">
+            <v>2027-WK08</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="D90" t="str">
+            <v>2027-WK09</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="D91" t="str">
+            <v>2027-WK10</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="D92" t="str">
+            <v>2027-WK11</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="D93" t="str">
+            <v>2027-WK12</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="D94" t="str">
+            <v>2027-WK13</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="D95" t="str">
+            <v>2027-WK14</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="D96" t="str">
+            <v>2027-WK15</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="D97" t="str">
+            <v>2027-WK16</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="D98" t="str">
+            <v>2027-WK17</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="D99" t="str">
+            <v>2027-WK18</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="D100" t="str">
+            <v>2027-WK19</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="D101" t="str">
+            <v>2027-WK20</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="D102" t="str">
+            <v>2027-WK21</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="D103" t="str">
+            <v>2027-WK22</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="D104" t="str">
+            <v>2027-WK23</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="D105" t="str">
+            <v>2027-WK24</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="D106" t="str">
+            <v>2027-WK25</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="D107" t="str">
+            <v>2027-WK26</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="D108" t="str">
+            <v>2027-WK27</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="D109" t="str">
+            <v>2027-WK28</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="D110" t="str">
+            <v>2027-WK29</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="D111" t="str">
+            <v>2027-WK30</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="D112" t="str">
+            <v>2027-WK31</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="D113" t="str">
+            <v>2027-WK32</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="D114" t="str">
+            <v>2027-WK33</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="D115" t="str">
+            <v>2027-WK34</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="D116" t="str">
+            <v>2027-WK35</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="D117" t="str">
+            <v>2027-WK36</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="D118" t="str">
+            <v>2027-WK37</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="D119" t="str">
+            <v>2027-WK38</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="D120" t="str">
+            <v>2027-WK39</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="D121" t="str">
+            <v>2027-WK40</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="D122" t="str">
+            <v>2027-WK41</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="D123" t="str">
+            <v>2027-WK42</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="D124" t="str">
+            <v>2027-WK43</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="D125" t="str">
+            <v>2027-WK44</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="D126" t="str">
+            <v>2027-WK45</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="D127" t="str">
+            <v>2027-WK46</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="D128" t="str">
+            <v>2027-WK47</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="D129" t="str">
+            <v>2027-WK48</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="D130" t="str">
+            <v>2027-WK49</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="D131" t="str">
+            <v>2027-WK50</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="D132" t="str">
+            <v>2027-WK51</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="D133" t="str">
+            <v>2027-WK52</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="D134" t="str">
+            <v>2028-WK01</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="D135" t="str">
+            <v>2028-WK02</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="D136" t="str">
+            <v>2028-WK03</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="D137" t="str">
+            <v>2028-WK04</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="D138" t="str">
+            <v>2028-WK05</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="D139" t="str">
+            <v>2028-WK06</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="D140" t="str">
+            <v>2028-WK07</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="D141" t="str">
+            <v>2028-WK08</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="D142" t="str">
+            <v>2028-WK09</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="D143" t="str">
+            <v>2028-WK10</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="D144" t="str">
+            <v>2028-WK11</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="D145" t="str">
+            <v>2028-WK12</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="D146" t="str">
+            <v>2028-WK13</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="D147" t="str">
+            <v>2028-WK14</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="D148" t="str">
+            <v>2028-WK15</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="D149" t="str">
+            <v>2028-WK16</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="D150" t="str">
+            <v>2028-WK17</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="D151" t="str">
+            <v>2028-WK18</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="D152" t="str">
+            <v>2028-WK19</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="D153" t="str">
+            <v>2028-WK20</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="D154" t="str">
+            <v>2028-WK21</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="D155" t="str">
+            <v>2028-WK22</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="D156" t="str">
+            <v>2028-WK23</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="D157" t="str">
+            <v>2028-WK24</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="D158" t="str">
+            <v>2028-WK25</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="D159" t="str">
+            <v>2028-WK26</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="D160" t="str">
+            <v>2028-WK27</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="D161" t="str">
+            <v>2028-WK28</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="D162" t="str">
+            <v>2028-WK29</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="D163" t="str">
+            <v>2028-WK30</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="D164" t="str">
+            <v>2028-WK31</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="D165" t="str">
+            <v>2028-WK32</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="D166" t="str">
+            <v>2028-WK33</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="D167" t="str">
+            <v>2028-WK34</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="D168" t="str">
+            <v>2028-WK35</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="D169" t="str">
+            <v>2028-WK36</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="D170" t="str">
+            <v>2028-WK37</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="D171" t="str">
+            <v>2028-WK38</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="D172" t="str">
+            <v>2028-WK39</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="D173" t="str">
+            <v>2028-WK40</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="D174" t="str">
+            <v>2028-WK41</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="D175" t="str">
+            <v>2028-WK42</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="D176" t="str">
+            <v>2028-WK43</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="D177" t="str">
+            <v>2028-WK44</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="D178" t="str">
+            <v>2028-WK45</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="D179" t="str">
+            <v>2028-WK46</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="D180" t="str">
+            <v>2028-WK47</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="D181" t="str">
+            <v>2028-WK48</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="D182" t="str">
+            <v>2028-WK49</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="D183" t="str">
+            <v>2028-WK50</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="D184" t="str">
+            <v>2028-WK51</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="D185" t="str">
+            <v>2028-WK52</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="D186" t="str">
+            <v>2029-WK01</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="D187" t="str">
+            <v>2029-WK02</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="D188" t="str">
+            <v>2029-WK03</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="D189" t="str">
+            <v>2029-WK04</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="D190" t="str">
+            <v>2029-WK05</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="D191" t="str">
+            <v>2029-WK06</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="D192" t="str">
+            <v>2029-WK07</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="D193" t="str">
+            <v>2029-WK08</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="D194" t="str">
+            <v>2029-WK09</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="D195" t="str">
+            <v>2029-WK10</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="D196" t="str">
+            <v>2029-WK11</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="D197" t="str">
+            <v>2029-WK12</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="D198" t="str">
+            <v>2029-WK13</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="D199" t="str">
+            <v>2029-WK14</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="D200" t="str">
+            <v>2029-WK15</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="D201" t="str">
+            <v>2029-WK16</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="D202" t="str">
+            <v>2029-WK17</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="D203" t="str">
+            <v>2029-WK18</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="D204" t="str">
+            <v>2029-WK19</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="D205" t="str">
+            <v>2029-WK20</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="D206" t="str">
+            <v>2029-WK21</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="D207" t="str">
+            <v>2029-WK22</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="D208" t="str">
+            <v>2029-WK23</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="D209" t="str">
+            <v>2029-WK24</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="D210" t="str">
+            <v>2029-WK25</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="D211" t="str">
+            <v>2029-WK26</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="D212" t="str">
+            <v>2029-WK27</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="D213" t="str">
+            <v>2029-WK28</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="D214" t="str">
+            <v>2029-WK29</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="D215" t="str">
+            <v>2029-WK30</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="D216" t="str">
+            <v>2029-WK31</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="D217" t="str">
+            <v>2029-WK32</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="D218" t="str">
+            <v>2029-WK33</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="D219" t="str">
+            <v>2029-WK34</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="D220" t="str">
+            <v>2029-WK35</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1203,95 +3292,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1484,265 +3629,2634 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.109375" customWidth="1"/>
     <col min="2" max="2" width="148.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="11">
+        <v>45845</v>
+      </c>
+      <c r="F2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="11">
+        <v>45852</v>
+      </c>
+      <c r="F3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E4" s="11">
+        <v>45859</v>
+      </c>
+      <c r="F4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="2">
-        <v>45989</v>
-      </c>
-      <c r="E2">
-        <v>58</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E5" s="11">
+        <v>45866</v>
+      </c>
+      <c r="F5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D6" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E6" s="11">
+        <v>45873</v>
+      </c>
+      <c r="F6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="2">
-        <v>46051</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2">
-        <v>46057</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="11">
+        <v>45880</v>
+      </c>
+      <c r="F7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="11">
+        <v>45887</v>
+      </c>
+      <c r="F8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="11">
+        <v>45894</v>
+      </c>
+      <c r="F9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="11">
+        <v>45901</v>
+      </c>
+      <c r="F10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="11">
+        <v>45908</v>
+      </c>
+      <c r="F11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="11">
+        <v>45915</v>
+      </c>
+      <c r="F12" t="s">
         <v>94</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="11">
+        <v>45922</v>
+      </c>
+      <c r="F13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="11">
+        <v>45929</v>
+      </c>
+      <c r="F14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="11">
+        <v>45936</v>
+      </c>
+      <c r="F15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="11">
+        <v>45943</v>
+      </c>
+      <c r="F16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="11">
+        <v>45950</v>
+      </c>
+      <c r="F17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="11">
+        <v>45957</v>
+      </c>
+      <c r="F18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="11">
+        <v>45964</v>
+      </c>
+      <c r="F19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="11">
+        <v>45971</v>
+      </c>
+      <c r="F20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E21" s="11">
+        <v>45978</v>
+      </c>
+      <c r="F21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="11">
+        <v>45985</v>
+      </c>
+      <c r="F22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="11">
+        <v>45992</v>
+      </c>
+      <c r="F23" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="2">
-        <v>46058</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2">
-        <v>46065</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="11">
+        <v>45999</v>
+      </c>
+      <c r="F24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="11">
+        <v>46006</v>
+      </c>
+      <c r="F25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="11">
+        <v>46013</v>
+      </c>
+      <c r="F26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="11">
+        <v>46020</v>
+      </c>
+      <c r="F27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="11">
+        <v>46027</v>
+      </c>
+      <c r="F28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="11">
+        <v>46034</v>
+      </c>
+      <c r="F29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="11">
+        <v>46041</v>
+      </c>
+      <c r="F30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="11">
+        <v>46048</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C32" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="11">
+        <v>46055</v>
+      </c>
+      <c r="F32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C33" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="11">
+        <v>46062</v>
+      </c>
+      <c r="F33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C34" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="11">
+        <v>46069</v>
+      </c>
+      <c r="F34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="11">
+        <v>46076</v>
+      </c>
+      <c r="F35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="11">
+        <v>46083</v>
+      </c>
+      <c r="F36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="11">
+        <v>46090</v>
+      </c>
+      <c r="F37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C38" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="11">
+        <v>46097</v>
+      </c>
+      <c r="F38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C39" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="11">
+        <v>46104</v>
+      </c>
+      <c r="F39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C40" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="11">
+        <v>46111</v>
+      </c>
+      <c r="F40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="11">
+        <v>46118</v>
+      </c>
+      <c r="F41" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="11">
+        <v>46125</v>
+      </c>
+      <c r="F42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C43" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="11">
+        <v>46132</v>
+      </c>
+      <c r="F43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C44" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="11">
+        <v>46139</v>
+      </c>
+      <c r="F44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C45" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="11">
+        <v>46146</v>
+      </c>
+      <c r="F45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C46" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="11">
+        <v>46153</v>
+      </c>
+      <c r="F46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C47" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="11">
+        <v>46160</v>
+      </c>
+      <c r="F47" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C48" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" s="11">
+        <v>46167</v>
+      </c>
+      <c r="F48" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" s="11">
+        <v>46174</v>
+      </c>
+      <c r="F49" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C50" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="11">
+        <v>46181</v>
+      </c>
+      <c r="F50" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C51" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="11">
+        <v>46188</v>
+      </c>
+      <c r="F51" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C52" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="11">
+        <v>46195</v>
+      </c>
+      <c r="F52" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C53" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="11">
+        <v>46202</v>
+      </c>
+      <c r="F53" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C54" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="11">
+        <v>46209</v>
+      </c>
+      <c r="F54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C55" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="11">
+        <v>46216</v>
+      </c>
+      <c r="F55" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C56" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="11">
+        <v>46223</v>
+      </c>
+      <c r="F56" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C57" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="11">
+        <v>46230</v>
+      </c>
+      <c r="F57" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C58" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" s="11">
+        <v>46237</v>
+      </c>
+      <c r="F58" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C59" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="11">
+        <v>46244</v>
+      </c>
+      <c r="F59" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C60" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="11">
+        <v>46251</v>
+      </c>
+      <c r="F60" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C61" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="11">
+        <v>46258</v>
+      </c>
+      <c r="F61" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C62" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="11">
+        <v>46265</v>
+      </c>
+      <c r="F62" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C63" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="11">
+        <v>46272</v>
+      </c>
+      <c r="F63" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C64" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="11">
+        <v>46279</v>
+      </c>
+      <c r="F64" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C65" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="11">
+        <v>46286</v>
+      </c>
+      <c r="F65" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C66" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="11">
+        <v>46293</v>
+      </c>
+      <c r="F66" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C67" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="11">
+        <v>46300</v>
+      </c>
+      <c r="F67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C68" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" s="11">
+        <v>46307</v>
+      </c>
+      <c r="F68" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C69" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E69" s="11">
+        <v>46314</v>
+      </c>
+      <c r="F69" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C70" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" s="11">
+        <v>46321</v>
+      </c>
+      <c r="F70" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C71" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E71" s="11">
+        <v>46328</v>
+      </c>
+      <c r="F71" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C72" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" s="11">
+        <v>46335</v>
+      </c>
+      <c r="F72" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C73" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="11">
+        <v>46342</v>
+      </c>
+      <c r="F73" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C74" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="11">
+        <v>46349</v>
+      </c>
+      <c r="F74" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C75" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75" s="11">
+        <v>46356</v>
+      </c>
+      <c r="F75" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C76" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76" s="11">
+        <v>46363</v>
+      </c>
+      <c r="F76" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C77" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" s="11">
+        <v>46370</v>
+      </c>
+      <c r="F77" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C78" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E78" s="11">
+        <v>46377</v>
+      </c>
+      <c r="F78" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C79" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E79" s="11">
+        <v>46384</v>
+      </c>
+      <c r="F79" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C80" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E80" s="11">
+        <v>46391</v>
+      </c>
+      <c r="F80" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C81" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="11">
+        <v>46398</v>
+      </c>
+      <c r="F81" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C82" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="11">
+        <v>46405</v>
+      </c>
+      <c r="F82" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C83" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="11">
+        <v>46412</v>
+      </c>
+      <c r="F83" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C84" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="11">
+        <v>46419</v>
+      </c>
+      <c r="F84" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C85" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="11">
+        <v>46426</v>
+      </c>
+      <c r="F85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C86" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="11">
+        <v>46433</v>
+      </c>
+      <c r="F86" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C87" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="11">
+        <v>46440</v>
+      </c>
+      <c r="F87" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C88" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="11">
+        <v>46447</v>
+      </c>
+      <c r="F88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C89" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="11">
+        <v>46454</v>
+      </c>
+      <c r="F89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C90" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="E90" s="11">
+        <v>46461</v>
+      </c>
+      <c r="F90" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C91" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="11">
+        <v>46468</v>
+      </c>
+      <c r="F91" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C92" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="11">
+        <v>46475</v>
+      </c>
+      <c r="F92" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C93" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" s="7"/>
+      <c r="E93" s="11">
+        <v>46482</v>
+      </c>
+      <c r="F93" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C94" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="11">
+        <v>46489</v>
+      </c>
+      <c r="F94" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C95" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E95" s="11">
+        <v>46496</v>
+      </c>
+      <c r="F95" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C96" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E96" s="11">
+        <v>46503</v>
+      </c>
+      <c r="F96" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C97" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E97" s="11">
+        <v>46510</v>
+      </c>
+      <c r="F97" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="2">
-        <v>46058</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2">
-        <v>46070</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C98" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E98" s="11">
+        <v>46517</v>
+      </c>
+      <c r="F98" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C99" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E99" s="11">
+        <v>46524</v>
+      </c>
+      <c r="F99" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C100" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="11">
+        <v>46531</v>
+      </c>
+      <c r="F100" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C101" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="11">
+        <v>46538</v>
+      </c>
+      <c r="F101" t="s">
         <v>112</v>
       </c>
-      <c r="B16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="2">
-        <v>46044</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16" s="2">
-        <v>46053</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="2">
-        <v>46068</v>
-      </c>
-      <c r="E17">
-        <v>21</v>
-      </c>
-      <c r="F17" s="2">
-        <v>46089</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="2">
-        <v>46090</v>
-      </c>
-      <c r="E20">
-        <v>27</v>
-      </c>
-      <c r="F20" s="2">
-        <v>46117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>121</v>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C102" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E102" s="11">
+        <v>46545</v>
+      </c>
+      <c r="F102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C103" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E103" s="11">
+        <v>46552</v>
+      </c>
+      <c r="F103" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C104" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E104" s="11">
+        <v>46559</v>
+      </c>
+      <c r="F104" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C105" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E105" s="11">
+        <v>46566</v>
+      </c>
+      <c r="F105" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C106" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E106" s="11">
+        <v>46573</v>
+      </c>
+      <c r="F106" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C107" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E107" s="11">
+        <v>46580</v>
+      </c>
+      <c r="F107" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C108" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="11">
+        <v>46587</v>
+      </c>
+      <c r="F108" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="109" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C109" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="11">
+        <v>46594</v>
+      </c>
+      <c r="F109" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C110" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D110" s="7"/>
+      <c r="E110" s="11">
+        <v>46601</v>
+      </c>
+      <c r="F110" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C111" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="11">
+        <v>46608</v>
+      </c>
+      <c r="F111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C112" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="11">
+        <v>46615</v>
+      </c>
+      <c r="F112" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C113" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="E113" s="11">
+        <v>46622</v>
+      </c>
+      <c r="F113" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C114" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="11">
+        <v>46629</v>
+      </c>
+      <c r="F114" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C115" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D115" s="7"/>
+      <c r="E115" s="11">
+        <v>46636</v>
+      </c>
+      <c r="F115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C116" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D116" s="7"/>
+      <c r="E116" s="11">
+        <v>46643</v>
+      </c>
+      <c r="F116" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C117" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D117" s="7"/>
+      <c r="E117" s="11">
+        <v>46650</v>
+      </c>
+      <c r="F117" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C118" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D118" s="7"/>
+      <c r="E118" s="11">
+        <v>46657</v>
+      </c>
+      <c r="F118" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C119" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" s="11">
+        <v>46664</v>
+      </c>
+      <c r="F119" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C120" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D120" s="7"/>
+      <c r="E120" s="11">
+        <v>46671</v>
+      </c>
+      <c r="F120" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C121" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D121" s="7"/>
+      <c r="E121" s="11">
+        <v>46678</v>
+      </c>
+      <c r="F121" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C122" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D122" s="7"/>
+      <c r="E122" s="11">
+        <v>46685</v>
+      </c>
+      <c r="F122" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C123" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="E123" s="11">
+        <v>46692</v>
+      </c>
+      <c r="F123" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C124" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D124" s="7"/>
+      <c r="E124" s="11">
+        <v>46699</v>
+      </c>
+      <c r="F124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C125" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="11">
+        <v>46706</v>
+      </c>
+      <c r="F125" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C126" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D126" s="7"/>
+      <c r="E126" s="11">
+        <v>46713</v>
+      </c>
+      <c r="F126" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C127" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="11">
+        <v>46720</v>
+      </c>
+      <c r="F127" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C128" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D128" s="7"/>
+      <c r="E128" s="11">
+        <v>46727</v>
+      </c>
+      <c r="F128" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="129" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C129" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="11">
+        <v>46734</v>
+      </c>
+      <c r="F129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C130" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="11">
+        <v>46741</v>
+      </c>
+      <c r="F130" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="131" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C131" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D131" s="7"/>
+      <c r="E131" s="11">
+        <v>46748</v>
+      </c>
+      <c r="F131" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="132" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C132" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D132" s="7"/>
+      <c r="E132" s="11">
+        <v>46755</v>
+      </c>
+      <c r="F132" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="133" spans="3:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C133" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" s="11">
+        <v>46762</v>
+      </c>
+      <c r="F133" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="134" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C134" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="E134" s="11">
+        <v>46769</v>
+      </c>
+      <c r="F134" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="135" spans="3:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C135" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D135" s="7"/>
+      <c r="E135" s="11">
+        <v>46776</v>
+      </c>
+      <c r="F135" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="136" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C136" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D136" s="7"/>
+      <c r="E136" s="11">
+        <v>46783</v>
+      </c>
+      <c r="F136" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C137" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D137" s="7"/>
+      <c r="E137" s="11">
+        <v>46790</v>
+      </c>
+      <c r="F137" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C138" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D138" s="7"/>
+      <c r="E138" s="11">
+        <v>46797</v>
+      </c>
+      <c r="F138" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="139" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C139" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D139" s="7"/>
+      <c r="E139" s="11">
+        <v>46804</v>
+      </c>
+      <c r="F139" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C140" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D140" s="7"/>
+      <c r="E140" s="11">
+        <v>46811</v>
+      </c>
+      <c r="F140" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="141" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C141" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D141" s="7"/>
+      <c r="E141" s="11">
+        <v>46818</v>
+      </c>
+      <c r="F141" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C142" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D142" s="7"/>
+      <c r="E142" s="11">
+        <v>46825</v>
+      </c>
+      <c r="F142" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C143" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D143" s="7"/>
+      <c r="E143" s="11">
+        <v>46832</v>
+      </c>
+      <c r="F143" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C144" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D144" s="7"/>
+      <c r="E144" s="11">
+        <v>46839</v>
+      </c>
+      <c r="F144" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="145" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C145" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D145" s="7"/>
+      <c r="E145" s="11">
+        <v>46846</v>
+      </c>
+      <c r="F145" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C146" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D146" s="7"/>
+      <c r="E146" s="11">
+        <v>46853</v>
+      </c>
+      <c r="F146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C147" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D147" s="7"/>
+      <c r="E147" s="11">
+        <v>46860</v>
+      </c>
+      <c r="F147" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="148" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C148" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D148" s="7"/>
+      <c r="E148" s="11">
+        <v>46867</v>
+      </c>
+      <c r="F148" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="149" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C149" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D149" s="7"/>
+      <c r="E149" s="11">
+        <v>46874</v>
+      </c>
+      <c r="F149" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="150" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C150" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D150" s="7"/>
+      <c r="E150" s="11">
+        <v>46881</v>
+      </c>
+      <c r="F150" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="151" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C151" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D151" s="7"/>
+      <c r="E151" s="11">
+        <v>46888</v>
+      </c>
+      <c r="F151" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="152" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C152" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D152" s="7"/>
+      <c r="E152" s="11">
+        <v>46895</v>
+      </c>
+      <c r="F152" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="153" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C153" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D153" s="7"/>
+      <c r="E153" s="11">
+        <v>46902</v>
+      </c>
+      <c r="F153" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="154" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C154" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D154" s="7"/>
+      <c r="E154" s="11">
+        <v>46909</v>
+      </c>
+      <c r="F154" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="155" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C155" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D155" s="7"/>
+      <c r="E155" s="11">
+        <v>46916</v>
+      </c>
+      <c r="F155" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="156" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C156" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D156" s="7"/>
+      <c r="E156" s="11">
+        <v>46923</v>
+      </c>
+      <c r="F156" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="157" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C157" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D157" s="7"/>
+      <c r="E157" s="11">
+        <v>46930</v>
+      </c>
+      <c r="F157" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="158" spans="3:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C158" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D158" s="7"/>
+      <c r="E158" s="11">
+        <v>46937</v>
+      </c>
+      <c r="F158" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="159" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C159" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D159" s="7"/>
+      <c r="E159" s="11">
+        <v>46944</v>
+      </c>
+      <c r="F159" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="160" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C160" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D160" s="7"/>
+      <c r="E160" s="11">
+        <v>46951</v>
+      </c>
+      <c r="F160" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C161" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D161" s="7"/>
+      <c r="E161" s="11">
+        <v>46958</v>
+      </c>
+      <c r="F161" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C162" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D162" s="7"/>
+      <c r="E162" s="11">
+        <v>46965</v>
+      </c>
+      <c r="F162" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C163" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D163" s="7"/>
+      <c r="E163" s="11">
+        <v>46972</v>
+      </c>
+      <c r="F163" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C164" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D164" s="7"/>
+      <c r="E164" s="11">
+        <v>46979</v>
+      </c>
+      <c r="F164" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C165" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D165" s="7"/>
+      <c r="E165" s="11">
+        <v>46986</v>
+      </c>
+      <c r="F165" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C166" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D166" s="7"/>
+      <c r="E166" s="11">
+        <v>46993</v>
+      </c>
+      <c r="F166" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C167" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D167" s="7"/>
+      <c r="E167" s="11">
+        <v>47000</v>
+      </c>
+      <c r="F167" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="168" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C168" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D168" s="7"/>
+      <c r="E168" s="11">
+        <v>47007</v>
+      </c>
+      <c r="F168" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C169" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D169" s="7"/>
+      <c r="E169" s="11">
+        <v>47014</v>
+      </c>
+      <c r="F169" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C170" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D170" s="7"/>
+      <c r="E170" s="11">
+        <v>47021</v>
+      </c>
+      <c r="F170" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C171" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D171" s="7"/>
+      <c r="E171" s="11">
+        <v>47028</v>
+      </c>
+      <c r="F171" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C172" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D172" s="7"/>
+      <c r="E172" s="11">
+        <v>47035</v>
+      </c>
+      <c r="F172" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C173" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D173" s="7"/>
+      <c r="E173" s="11">
+        <v>47042</v>
+      </c>
+      <c r="F173" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C174" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D174" s="7"/>
+      <c r="E174" s="11">
+        <v>47049</v>
+      </c>
+      <c r="F174" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="175" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C175" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D175" s="7"/>
+      <c r="E175" s="11">
+        <v>47056</v>
+      </c>
+      <c r="F175" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C176" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D176" s="7"/>
+      <c r="E176" s="11">
+        <v>47063</v>
+      </c>
+      <c r="F176" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="177" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C177" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D177" s="7"/>
+      <c r="E177" s="11">
+        <v>47070</v>
+      </c>
+      <c r="F177" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="178" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C178" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D178" s="7"/>
+      <c r="E178" s="11">
+        <v>47077</v>
+      </c>
+      <c r="F178" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="179" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C179" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D179" s="7"/>
+      <c r="E179" s="11">
+        <v>47084</v>
+      </c>
+      <c r="F179" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="180" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C180" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D180" s="7"/>
+      <c r="E180" s="11">
+        <v>47091</v>
+      </c>
+      <c r="F180" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="181" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C181" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D181" s="7"/>
+      <c r="E181" s="11">
+        <v>47098</v>
+      </c>
+      <c r="F181" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="182" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C182" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D182" s="7"/>
+      <c r="E182" s="11">
+        <v>47105</v>
+      </c>
+      <c r="F182" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="183" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C183" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D183" s="7"/>
+      <c r="E183" s="11">
+        <v>47112</v>
+      </c>
+      <c r="F183" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="184" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C184" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D184" s="7"/>
+      <c r="E184" s="11">
+        <v>47119</v>
+      </c>
+      <c r="F184" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="185" spans="3:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C185" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D185" s="7"/>
+      <c r="E185" s="11">
+        <v>47126</v>
+      </c>
+      <c r="F185" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="186" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C186" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D186" s="7"/>
+      <c r="E186" s="11">
+        <v>47133</v>
+      </c>
+      <c r="F186" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="187" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E187" s="11">
+        <v>47140</v>
+      </c>
+      <c r="F187" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="188" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E188" s="11">
+        <v>47147</v>
+      </c>
+      <c r="F188" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="189" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E189" s="11">
+        <v>47154</v>
+      </c>
+      <c r="F189" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="190" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E190" s="11">
+        <v>47161</v>
+      </c>
+      <c r="F190" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="191" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E191" s="11">
+        <v>47168</v>
+      </c>
+      <c r="F191" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="192" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E192" s="11">
+        <v>47175</v>
+      </c>
+      <c r="F192" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="193" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E193" s="11">
+        <v>47182</v>
+      </c>
+      <c r="F193" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="194" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E194" s="11">
+        <v>47189</v>
+      </c>
+      <c r="F194" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="195" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E195" s="11">
+        <v>47196</v>
+      </c>
+      <c r="F195" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="196" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E196" s="11">
+        <v>47203</v>
+      </c>
+      <c r="F196" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="197" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E197" s="11">
+        <v>47210</v>
+      </c>
+      <c r="F197" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="198" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E198" s="11">
+        <v>47217</v>
+      </c>
+      <c r="F198" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="199" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E199" s="11">
+        <v>47224</v>
+      </c>
+      <c r="F199" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="200" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E200" s="11">
+        <v>47231</v>
+      </c>
+      <c r="F200" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="201" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E201" s="11">
+        <v>47238</v>
+      </c>
+      <c r="F201" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="202" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E202" s="11">
+        <v>47245</v>
+      </c>
+      <c r="F202" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="203" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E203" s="11">
+        <v>47252</v>
+      </c>
+      <c r="F203" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="204" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E204" s="11">
+        <v>47259</v>
+      </c>
+      <c r="F204" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="205" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E205" s="11">
+        <v>47266</v>
+      </c>
+      <c r="F205" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="206" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E206" s="11">
+        <v>47273</v>
+      </c>
+      <c r="F206" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="207" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E207" s="11">
+        <v>47280</v>
+      </c>
+      <c r="F207" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="208" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E208" s="11">
+        <v>47287</v>
+      </c>
+      <c r="F208" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="209" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E209" s="11">
+        <v>47294</v>
+      </c>
+      <c r="F209" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="210" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E210" s="11">
+        <v>47301</v>
+      </c>
+      <c r="F210" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="211" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E211" s="11">
+        <v>47308</v>
+      </c>
+      <c r="F211" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="212" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E212" s="11">
+        <v>47315</v>
+      </c>
+      <c r="F212" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="213" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E213" s="11">
+        <v>47322</v>
+      </c>
+      <c r="F213" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="214" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E214" s="11">
+        <v>47329</v>
+      </c>
+      <c r="F214" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="215" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E215" s="11">
+        <v>47336</v>
+      </c>
+      <c r="F215" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="216" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E216" s="11">
+        <v>47343</v>
+      </c>
+      <c r="F216" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="217" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E217" s="11">
+        <v>47350</v>
+      </c>
+      <c r="F217" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="218" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E218" s="11">
+        <v>47357</v>
+      </c>
+      <c r="F218" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D186" xr:uid="{4322A8A7-5321-43AE-AD24-91455F977BCA}">
+      <formula1>Weeklist</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>